--- a/excel/assignments/Assignment17_Workbook.xlsx
+++ b/excel/assignments/Assignment17_Workbook.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Geometry Class" sheetId="2" r:id="rId1"/>
+    <sheet name="Mathematik" sheetId="2" r:id="rId1"/>
     <sheet name="Party Budget" sheetId="3" r:id="rId2"/>
-    <sheet name="History Class" sheetId="1" r:id="rId3"/>
+    <sheet name="Geschichte" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,40 +23,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>Test 1</t>
   </si>
   <si>
-    <t>Paper 1</t>
-  </si>
-  <si>
     <t>Test 2</t>
   </si>
   <si>
-    <t>Paper 2</t>
-  </si>
-  <si>
     <t>Test 3</t>
   </si>
   <si>
-    <t>Final Grade</t>
-  </si>
-  <si>
-    <t>Reservation fee</t>
-  </si>
-  <si>
-    <t>Price per person</t>
-  </si>
-  <si>
-    <t>Number of guests</t>
-  </si>
-  <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Hausaufgabe 1</t>
+  </si>
+  <si>
+    <t>Hausaufgabe 2</t>
+  </si>
+  <si>
+    <t>Finale Punkte</t>
+  </si>
+  <si>
+    <t>Reservierungsgebühr</t>
+  </si>
+  <si>
+    <t>Preis pro Person</t>
+  </si>
+  <si>
+    <t>Anzahl Gäste</t>
   </si>
 </sst>
 </file>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,12 +259,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -548,26 +547,26 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>58</v>
@@ -575,7 +574,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>70</v>
@@ -583,7 +582,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>72</v>
@@ -591,7 +590,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>60</v>
@@ -599,13 +598,13 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <f>AVERAGE(B2:B6)</f>
@@ -621,43 +620,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
         <v>14.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
         <f>B1+B2*B3</f>
         <v>230</v>
       </c>
@@ -672,27 +671,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>88</v>
@@ -700,7 +699,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>93</v>
@@ -708,7 +707,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>83</v>
@@ -716,7 +715,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>86</v>
@@ -724,13 +723,13 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8">
         <f>AVERAGE(B2:B6)</f>
